--- a/games_collections/playstation/SQL Output/Dates and Finances/Combined Months/finances_and_dates_january_to_december.xlsx
+++ b/games_collections/playstation/SQL Output/Dates and Finances/Combined Months/finances_and_dates_january_to_december.xlsx
@@ -19,8 +19,8 @@
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">January!$A$1:$F$88</definedName>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">February!$A$1:$F$68</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">March!$A$1:$F$70</definedName>
-    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">April!$A$1:$F$58</definedName>
+    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">March!$A$1:$F$72</definedName>
+    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">April!$A$1:$F$60</definedName>
     <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">May!$A$1:$F$84</definedName>
     <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">June!$A$1:$F$52</definedName>
     <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">July!$A$1:$F$57</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="947">
   <si>
     <t>ID</t>
   </si>
@@ -724,6 +724,12 @@
     <t>Goat Simulator 3</t>
   </si>
   <si>
+    <t>EA Sports FC 24</t>
+  </si>
+  <si>
+    <t>The Survivalists: Deluxe Edition</t>
+  </si>
+  <si>
     <t>inFamous 2</t>
   </si>
   <si>
@@ -893,6 +899,12 @@
   </si>
   <si>
     <t>Tomb Raider (2013)</t>
+  </si>
+  <si>
+    <t>Minecraft Legends</t>
+  </si>
+  <si>
+    <t>Skul: The Hero Slayer</t>
   </si>
   <si>
     <t>Motorstorm: Pacific Rift</t>
@@ -2874,7 +2886,7 @@
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
     <numFmt numFmtId="165" formatCode="[$€]#,##0.00"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2891,6 +2903,10 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2919,7 +2935,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2943,6 +2959,15 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5071,7 +5096,7 @@
         <v>29.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="C2" s="3">
         <v>41551.0</v>
@@ -5091,7 +5116,7 @@
         <v>208.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="C3" s="3">
         <v>41558.0</v>
@@ -5111,7 +5136,7 @@
         <v>148.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="C4" s="3">
         <v>41559.0</v>
@@ -5131,7 +5156,7 @@
         <v>35.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="C5" s="3">
         <v>41568.0</v>
@@ -5151,7 +5176,7 @@
         <v>58.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C6" s="3">
         <v>41568.0</v>
@@ -5171,7 +5196,7 @@
         <v>18.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="C7" s="3">
         <v>41572.0</v>
@@ -5191,7 +5216,7 @@
         <v>68.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="C8" s="3">
         <v>41578.0</v>
@@ -5211,7 +5236,7 @@
         <v>70.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="C9" s="3">
         <v>41578.0</v>
@@ -5231,7 +5256,7 @@
         <v>71.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="C10" s="3">
         <v>41578.0</v>
@@ -5251,7 +5276,7 @@
         <v>92.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="C11" s="3">
         <v>42279.0</v>
@@ -5271,7 +5296,7 @@
         <v>93.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="C12" s="3">
         <v>42279.0</v>
@@ -5291,7 +5316,7 @@
         <v>21.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="C13" s="3">
         <v>42279.0</v>
@@ -5311,7 +5336,7 @@
         <v>22.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="C14" s="3">
         <v>42279.0</v>
@@ -5331,7 +5356,7 @@
         <v>23.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="C15" s="3">
         <v>42279.0</v>
@@ -5351,7 +5376,7 @@
         <v>27.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="C16" s="3">
         <v>42279.0</v>
@@ -5371,7 +5396,7 @@
         <v>318.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="C17" s="3">
         <v>42279.0</v>
@@ -5391,7 +5416,7 @@
         <v>192.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="C18" s="3">
         <v>42299.0</v>
@@ -5411,7 +5436,7 @@
         <v>689.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="C19" s="3">
         <v>42648.0</v>
@@ -5431,7 +5456,7 @@
         <v>340.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="C20" s="3">
         <v>42650.0</v>
@@ -5451,7 +5476,7 @@
         <v>387.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="C21" s="3">
         <v>42650.0</v>
@@ -5471,7 +5496,7 @@
         <v>408.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="C22" s="3">
         <v>42650.0</v>
@@ -5491,7 +5516,7 @@
         <v>523.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C23" s="3">
         <v>42650.0</v>
@@ -5511,7 +5536,7 @@
         <v>60.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="C24" s="3">
         <v>42653.0</v>
@@ -5531,7 +5556,7 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="C25" s="3">
         <v>42655.0</v>
@@ -5551,7 +5576,7 @@
         <v>648.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="C26" s="3">
         <v>42664.0</v>
@@ -5571,7 +5596,7 @@
         <v>39.0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="C27" s="3">
         <v>42665.0</v>
@@ -5591,7 +5616,7 @@
         <v>41.0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="C28" s="3">
         <v>42665.0</v>
@@ -5611,7 +5636,7 @@
         <v>253.0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="C29" s="3">
         <v>42665.0</v>
@@ -5631,7 +5656,7 @@
         <v>431.0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="C30" s="3">
         <v>42666.0</v>
@@ -5651,7 +5676,7 @@
         <v>409.0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="C31" s="3">
         <v>43014.0</v>
@@ -5671,7 +5696,7 @@
         <v>255.0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="C32" s="3">
         <v>43014.0</v>
@@ -5691,7 +5716,7 @@
         <v>477.0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="C33" s="3">
         <v>43014.0</v>
@@ -5711,7 +5736,7 @@
         <v>49.0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="C34" s="3">
         <v>43014.0</v>
@@ -5731,7 +5756,7 @@
         <v>36.0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="C35" s="3">
         <v>43014.0</v>
@@ -5751,7 +5776,7 @@
         <v>62.0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="C36" s="3">
         <v>43014.0</v>
@@ -5771,7 +5796,7 @@
         <v>63.0</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="C37" s="3">
         <v>43014.0</v>
@@ -5791,7 +5816,7 @@
         <v>64.0</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="C38" s="3">
         <v>43014.0</v>
@@ -5811,7 +5836,7 @@
         <v>65.0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="C39" s="3">
         <v>43014.0</v>
@@ -5831,7 +5856,7 @@
         <v>12.0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="C40" s="3">
         <v>43014.0</v>
@@ -5851,7 +5876,7 @@
         <v>32.0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="C41" s="3">
         <v>43014.0</v>
@@ -5871,7 +5896,7 @@
         <v>97.0</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="C42" s="3">
         <v>43014.0</v>
@@ -5891,7 +5916,7 @@
         <v>75.0</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="C43" s="3">
         <v>43014.0</v>
@@ -5911,7 +5936,7 @@
         <v>77.0</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="C44" s="3">
         <v>43014.0</v>
@@ -5931,7 +5956,7 @@
         <v>86.0</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="C45" s="3">
         <v>43014.0</v>
@@ -5951,7 +5976,7 @@
         <v>167.0</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="C46" s="3">
         <v>43014.0</v>
@@ -5971,7 +5996,7 @@
         <v>133.0</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="C47" s="3">
         <v>43014.0</v>
@@ -5991,7 +6016,7 @@
         <v>134.0</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="C48" s="3">
         <v>43014.0</v>
@@ -6011,7 +6036,7 @@
         <v>424.0</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="C49" s="3">
         <v>43016.0</v>
@@ -6031,7 +6056,7 @@
         <v>392.0</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="C50" s="3">
         <v>43377.0</v>
@@ -6051,7 +6076,7 @@
         <v>649.0</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="C51" s="3">
         <v>43377.0</v>
@@ -6071,7 +6096,7 @@
         <v>682.0</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="C52" s="3">
         <v>43377.0</v>
@@ -6091,7 +6116,7 @@
         <v>686.0</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="C53" s="3">
         <v>43377.0</v>
@@ -6111,7 +6136,7 @@
         <v>591.0</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="C54" s="3">
         <v>43392.0</v>
@@ -6131,7 +6156,7 @@
         <v>618.0</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="C55" s="3">
         <v>43749.0</v>
@@ -6151,7 +6176,7 @@
         <v>550.0</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="C56" s="3">
         <v>43749.0</v>
@@ -6171,7 +6196,7 @@
         <v>261.0</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="C57" s="3">
         <v>43749.0</v>
@@ -6191,7 +6216,7 @@
         <v>342.0</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="C58" s="3">
         <v>43755.0</v>
@@ -6211,7 +6236,7 @@
         <v>489.0</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="C59" s="3">
         <v>43763.0</v>
@@ -6231,7 +6256,7 @@
         <v>440.0</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="C60" s="3">
         <v>44105.0</v>
@@ -6251,7 +6276,7 @@
         <v>809.0</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="C61" s="3">
         <v>44105.0</v>
@@ -6271,7 +6296,7 @@
         <v>423.0</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="C62" s="3">
         <v>44115.0</v>
@@ -6291,7 +6316,7 @@
         <v>198.0</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="C63" s="3">
         <v>44115.0</v>
@@ -6311,7 +6336,7 @@
         <v>214.0</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="C64" s="3">
         <v>44115.0</v>
@@ -6331,7 +6356,7 @@
         <v>219.0</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="C65" s="3">
         <v>44115.0</v>
@@ -6351,7 +6376,7 @@
         <v>222.0</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="C66" s="3">
         <v>44115.0</v>
@@ -6371,7 +6396,7 @@
         <v>231.0</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="C67" s="3">
         <v>44115.0</v>
@@ -6391,7 +6416,7 @@
         <v>232.0</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="C68" s="3">
         <v>44115.0</v>
@@ -6411,7 +6436,7 @@
         <v>137.0</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="C69" s="3">
         <v>44115.0</v>
@@ -6431,7 +6456,7 @@
         <v>168.0</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="C70" s="3">
         <v>44115.0</v>
@@ -6451,7 +6476,7 @@
         <v>107.0</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="C71" s="3">
         <v>44115.0</v>
@@ -6471,7 +6496,7 @@
         <v>108.0</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="C72" s="3">
         <v>44115.0</v>
@@ -6491,7 +6516,7 @@
         <v>109.0</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="C73" s="3">
         <v>44115.0</v>
@@ -6511,7 +6536,7 @@
         <v>118.0</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="C74" s="3">
         <v>44115.0</v>
@@ -6531,7 +6556,7 @@
         <v>119.0</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="C75" s="3">
         <v>44115.0</v>
@@ -6551,7 +6576,7 @@
         <v>128.0</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="C76" s="3">
         <v>44115.0</v>
@@ -6571,7 +6596,7 @@
         <v>475.0</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="C77" s="3">
         <v>44474.0</v>
@@ -6591,7 +6616,7 @@
         <v>469.0</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="C78" s="3">
         <v>44474.0</v>
@@ -6611,7 +6636,7 @@
         <v>470.0</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="C79" s="3">
         <v>44474.0</v>
@@ -6631,7 +6656,7 @@
         <v>471.0</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="C80" s="3">
         <v>44474.0</v>
@@ -6651,7 +6676,7 @@
         <v>530.0</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="C81" s="3">
         <v>44474.0</v>
@@ -6671,7 +6696,7 @@
         <v>840.0</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="C82" s="3">
         <v>44474.0</v>
@@ -6691,7 +6716,7 @@
         <v>472.0</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="C83" s="3">
         <v>44482.0</v>
@@ -6711,7 +6736,7 @@
         <v>473.0</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="C84" s="3">
         <v>44482.0</v>
@@ -6731,7 +6756,7 @@
         <v>474.0</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="C85" s="3">
         <v>44482.0</v>
@@ -6751,7 +6776,7 @@
         <v>560.0</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="C86" s="3">
         <v>44489.0</v>
@@ -6771,7 +6796,7 @@
         <v>886.0</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="C87" s="3">
         <v>44489.0</v>
@@ -6791,7 +6816,7 @@
         <v>576.0</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="C88" s="3">
         <v>44836.0</v>
@@ -6811,7 +6836,7 @@
         <v>577.0</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="C89" s="3">
         <v>44836.0</v>
@@ -6831,7 +6856,7 @@
         <v>441.0</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="C90" s="3">
         <v>44839.0</v>
@@ -6851,7 +6876,7 @@
         <v>843.0</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="C91" s="3">
         <v>44839.0</v>
@@ -6871,7 +6896,7 @@
         <v>910.0</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="C92" s="3">
         <v>44854.0</v>
@@ -6891,7 +6916,7 @@
         <v>894.0</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="C93" s="3">
         <v>44864.0</v>
@@ -6911,7 +6936,7 @@
         <v>810.0</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="C94" s="3">
         <v>44864.0</v>
@@ -6931,7 +6956,7 @@
         <v>825.0</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="C95" s="3">
         <v>45202.0</v>
@@ -6951,7 +6976,7 @@
         <v>908.0</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="C96" s="3">
         <v>45202.0</v>
@@ -6971,7 +6996,7 @@
         <v>926.0</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="C97" s="3">
         <v>45202.0</v>
@@ -6991,7 +7016,7 @@
         <v>786.0</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="C98" s="3">
         <v>45214.0</v>
@@ -7011,7 +7036,7 @@
         <v>862.0</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="C99" s="3">
         <v>45219.0</v>
@@ -7031,7 +7056,7 @@
         <v>551.0</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="C100" s="3">
         <v>45224.0</v>
@@ -7142,7 +7167,7 @@
         <v>169.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="C2" s="3">
         <v>40140.0</v>
@@ -7162,7 +7187,7 @@
         <v>223.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="C3" s="3">
         <v>40489.0</v>
@@ -7182,7 +7207,7 @@
         <v>224.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="C4" s="3">
         <v>40489.0</v>
@@ -7202,7 +7227,7 @@
         <v>111.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="C5" s="3">
         <v>40867.0</v>
@@ -7222,7 +7247,7 @@
         <v>443.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="C6" s="3">
         <v>41240.0</v>
@@ -7242,7 +7267,7 @@
         <v>444.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="C7" s="3">
         <v>41240.0</v>
@@ -7262,7 +7287,7 @@
         <v>445.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="C8" s="3">
         <v>41240.0</v>
@@ -7282,7 +7307,7 @@
         <v>228.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="C9" s="3">
         <v>41599.0</v>
@@ -7302,7 +7327,7 @@
         <v>221.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="C10" s="3">
         <v>41607.0</v>
@@ -7322,7 +7347,7 @@
         <v>76.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="C11" s="3">
         <v>42321.0</v>
@@ -7342,7 +7367,7 @@
         <v>247.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="C12" s="3">
         <v>42326.0</v>
@@ -7362,7 +7387,7 @@
         <v>688.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="C13" s="3">
         <v>42326.0</v>
@@ -7382,7 +7407,7 @@
         <v>626.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="C14" s="3">
         <v>42330.0</v>
@@ -7402,7 +7427,7 @@
         <v>252.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="C15" s="3">
         <v>42336.0</v>
@@ -7422,7 +7447,7 @@
         <v>290.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="C16" s="3">
         <v>42700.0</v>
@@ -7442,7 +7467,7 @@
         <v>82.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="C17" s="3">
         <v>42700.0</v>
@@ -7462,7 +7487,7 @@
         <v>83.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="C18" s="3">
         <v>42700.0</v>
@@ -7482,7 +7507,7 @@
         <v>84.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="C19" s="3">
         <v>42700.0</v>
@@ -7502,7 +7527,7 @@
         <v>201.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="C20" s="3">
         <v>42700.0</v>
@@ -7522,7 +7547,7 @@
         <v>202.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="C21" s="3">
         <v>42700.0</v>
@@ -7542,7 +7567,7 @@
         <v>203.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="C22" s="3">
         <v>42700.0</v>
@@ -7562,7 +7587,7 @@
         <v>438.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="C23" s="3">
         <v>42700.0</v>
@@ -7582,7 +7607,7 @@
         <v>439.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="C24" s="3">
         <v>42700.0</v>
@@ -7602,7 +7627,7 @@
         <v>468.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="C25" s="3">
         <v>42700.0</v>
@@ -7622,7 +7647,7 @@
         <v>334.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="C26" s="3">
         <v>43069.0</v>
@@ -7642,7 +7667,7 @@
         <v>622.0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="C27" s="3">
         <v>43410.0</v>
@@ -7662,7 +7687,7 @@
         <v>531.0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="C28" s="3">
         <v>43414.0</v>
@@ -7682,7 +7707,7 @@
         <v>598.0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="C29" s="3">
         <v>43417.0</v>
@@ -7702,7 +7727,7 @@
         <v>291.0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="C30" s="3">
         <v>43421.0</v>
@@ -7722,7 +7747,7 @@
         <v>390.0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="C31" s="3">
         <v>43430.0</v>
@@ -7742,7 +7767,7 @@
         <v>543.0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="C32" s="3">
         <v>43433.0</v>
@@ -7762,7 +7787,7 @@
         <v>454.0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="C33" s="3">
         <v>43786.0</v>
@@ -7782,7 +7807,7 @@
         <v>455.0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="C34" s="3">
         <v>43786.0</v>
@@ -7802,7 +7827,7 @@
         <v>456.0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="C35" s="3">
         <v>43786.0</v>
@@ -7822,7 +7847,7 @@
         <v>427.0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="C36" s="3">
         <v>44138.0</v>
@@ -7842,7 +7867,7 @@
         <v>278.0</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="C37" s="3">
         <v>44139.0</v>
@@ -7862,7 +7887,7 @@
         <v>588.0</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="C38" s="3">
         <v>44139.0</v>
@@ -7882,7 +7907,7 @@
         <v>406.0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="C39" s="3">
         <v>44157.0</v>
@@ -7902,7 +7927,7 @@
         <v>457.0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="C40" s="3">
         <v>44502.0</v>
@@ -7922,7 +7947,7 @@
         <v>745.0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="C41" s="3">
         <v>44502.0</v>
@@ -7942,7 +7967,7 @@
         <v>771.0</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="C42" s="3">
         <v>44502.0</v>
@@ -7962,7 +7987,7 @@
         <v>779.0</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="C43" s="3">
         <v>44502.0</v>
@@ -7982,7 +8007,7 @@
         <v>830.0</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="C44" s="3">
         <v>44502.0</v>
@@ -8002,7 +8027,7 @@
         <v>853.0</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="C45" s="3">
         <v>44502.0</v>
@@ -8022,7 +8047,7 @@
         <v>555.0</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="C46" s="3">
         <v>44510.0</v>
@@ -8042,7 +8067,7 @@
         <v>557.0</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="C47" s="3">
         <v>44510.0</v>
@@ -8062,7 +8087,7 @@
         <v>714.0</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="C48" s="3">
         <v>44516.0</v>
@@ -8082,7 +8107,7 @@
         <v>775.0</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="C49" s="3">
         <v>44517.0</v>
@@ -8102,7 +8127,7 @@
         <v>791.0</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="C50" s="3">
         <v>44521.0</v>
@@ -8122,7 +8147,7 @@
         <v>541.0</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="C51" s="3">
         <v>44521.0</v>
@@ -8142,7 +8167,7 @@
         <v>487.0</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="C52" s="3">
         <v>44521.0</v>
@@ -8162,7 +8187,7 @@
         <v>839.0</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="C53" s="3">
         <v>44867.0</v>
@@ -8182,7 +8207,7 @@
         <v>869.0</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="C54" s="3">
         <v>44867.0</v>
@@ -8202,7 +8227,7 @@
         <v>875.0</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="C55" s="3">
         <v>44869.0</v>
@@ -8222,7 +8247,7 @@
         <v>887.0</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="C56" s="3">
         <v>44883.0</v>
@@ -8242,7 +8267,7 @@
         <v>891.0</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="C57" s="3">
         <v>44883.0</v>
@@ -8262,7 +8287,7 @@
         <v>852.0</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="C58" s="3">
         <v>44883.0</v>
@@ -8282,7 +8307,7 @@
         <v>861.0</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="C59" s="3">
         <v>44883.0</v>
@@ -8302,7 +8327,7 @@
         <v>817.0</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="C60" s="3">
         <v>44883.0</v>
@@ -8322,7 +8347,7 @@
         <v>901.0</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="C61" s="3">
         <v>44889.0</v>
@@ -8342,7 +8367,7 @@
         <v>788.0</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="C62" s="3">
         <v>45237.0</v>
@@ -8362,7 +8387,7 @@
         <v>806.0</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="C63" s="3">
         <v>45256.0</v>
@@ -8382,7 +8407,7 @@
         <v>807.0</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="C64" s="3">
         <v>45256.0</v>
@@ -8402,7 +8427,7 @@
         <v>346.0</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="C65" s="3">
         <v>45256.0</v>
@@ -8422,7 +8447,7 @@
         <v>428.0</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="C66" s="3">
         <v>45256.0</v>
@@ -8442,7 +8467,7 @@
         <v>429.0</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="C67" s="3">
         <v>45256.0</v>
@@ -8462,7 +8487,7 @@
         <v>430.0</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="C68" s="3">
         <v>45256.0</v>
@@ -8482,7 +8507,7 @@
         <v>312.0</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="C69" s="3">
         <v>45256.0</v>
@@ -8593,7 +8618,7 @@
         <v>150.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="C2" s="3">
         <v>40178.0</v>
@@ -8613,7 +8638,7 @@
         <v>135.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="C3" s="3">
         <v>40537.0</v>
@@ -8633,7 +8658,7 @@
         <v>121.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="C4" s="3">
         <v>40538.0</v>
@@ -8653,7 +8678,7 @@
         <v>6.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="C5" s="3">
         <v>40538.0</v>
@@ -8673,7 +8698,7 @@
         <v>11.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="C6" s="3">
         <v>40538.0</v>
@@ -8693,7 +8718,7 @@
         <v>25.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="C7" s="3">
         <v>40538.0</v>
@@ -8713,7 +8738,7 @@
         <v>33.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="C8" s="3">
         <v>40538.0</v>
@@ -8733,7 +8758,7 @@
         <v>42.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="C9" s="3">
         <v>40538.0</v>
@@ -8753,7 +8778,7 @@
         <v>66.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="C10" s="3">
         <v>40538.0</v>
@@ -8773,7 +8798,7 @@
         <v>170.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="C11" s="3">
         <v>40885.0</v>
@@ -8793,7 +8818,7 @@
         <v>151.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="C12" s="3">
         <v>40895.0</v>
@@ -8813,7 +8838,7 @@
         <v>51.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="C13" s="3">
         <v>41261.0</v>
@@ -8833,7 +8858,7 @@
         <v>30.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="C14" s="3">
         <v>41261.0</v>
@@ -8853,7 +8878,7 @@
         <v>50.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="C15" s="3">
         <v>41262.0</v>
@@ -8873,7 +8898,7 @@
         <v>153.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="C16" s="3">
         <v>41628.0</v>
@@ -8893,7 +8918,7 @@
         <v>182.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="C17" s="3">
         <v>41979.0</v>
@@ -8913,7 +8938,7 @@
         <v>183.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="C18" s="3">
         <v>41979.0</v>
@@ -8933,7 +8958,7 @@
         <v>184.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="C19" s="3">
         <v>41979.0</v>
@@ -8953,7 +8978,7 @@
         <v>141.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="C20" s="3">
         <v>41999.0</v>
@@ -8973,7 +8998,7 @@
         <v>99.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="C21" s="3">
         <v>41999.0</v>
@@ -8993,7 +9018,7 @@
         <v>671.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="C22" s="3">
         <v>42343.0</v>
@@ -9013,7 +9038,7 @@
         <v>616.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="C23" s="3">
         <v>42363.0</v>
@@ -9033,7 +9058,7 @@
         <v>647.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="C24" s="3">
         <v>42363.0</v>
@@ -9053,7 +9078,7 @@
         <v>262.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="C25" s="3">
         <v>42363.0</v>
@@ -9073,7 +9098,7 @@
         <v>373.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="C26" s="3">
         <v>42363.0</v>
@@ -9093,7 +9118,7 @@
         <v>627.0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="C27" s="3">
         <v>42710.0</v>
@@ -9113,7 +9138,7 @@
         <v>571.0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="C28" s="3">
         <v>42724.0</v>
@@ -9133,7 +9158,7 @@
         <v>637.0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="C29" s="3">
         <v>43073.0</v>
@@ -9153,7 +9178,7 @@
         <v>644.0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="C30" s="3">
         <v>43077.0</v>
@@ -9173,7 +9198,7 @@
         <v>446.0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="C31" s="3">
         <v>43078.0</v>
@@ -9193,7 +9218,7 @@
         <v>352.0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="C32" s="3">
         <v>43079.0</v>
@@ -9213,7 +9238,7 @@
         <v>593.0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="C33" s="3">
         <v>43081.0</v>
@@ -9233,7 +9258,7 @@
         <v>594.0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="C34" s="3">
         <v>43081.0</v>
@@ -9253,7 +9278,7 @@
         <v>528.0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="C35" s="3">
         <v>43091.0</v>
@@ -9273,7 +9298,7 @@
         <v>547.0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="C36" s="3">
         <v>43091.0</v>
@@ -9293,7 +9318,7 @@
         <v>681.0</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="C37" s="3">
         <v>43091.0</v>
@@ -9313,7 +9338,7 @@
         <v>683.0</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="C38" s="3">
         <v>43091.0</v>
@@ -9333,7 +9358,7 @@
         <v>491.0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="C39" s="3">
         <v>43091.0</v>
@@ -9353,7 +9378,7 @@
         <v>640.0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="C40" s="3">
         <v>43095.0</v>
@@ -9373,7 +9398,7 @@
         <v>518.0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="C41" s="3">
         <v>43100.0</v>
@@ -9393,7 +9418,7 @@
         <v>695.0</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="C42" s="3">
         <v>43463.0</v>
@@ -9413,7 +9438,7 @@
         <v>754.0</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="C43" s="3">
         <v>43463.0</v>
@@ -9433,7 +9458,7 @@
         <v>747.0</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="C44" s="3">
         <v>43804.0</v>
@@ -9453,7 +9478,7 @@
         <v>748.0</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="C45" s="3">
         <v>43804.0</v>
@@ -9473,7 +9498,7 @@
         <v>773.0</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="C46" s="3">
         <v>43804.0</v>
@@ -9493,7 +9518,7 @@
         <v>735.0</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="C47" s="3">
         <v>43804.0</v>
@@ -9513,7 +9538,7 @@
         <v>615.0</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="C48" s="3">
         <v>43804.0</v>
@@ -9533,7 +9558,7 @@
         <v>687.0</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="C49" s="3">
         <v>43816.0</v>
@@ -9553,7 +9578,7 @@
         <v>650.0</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="C50" s="3">
         <v>43824.0</v>
@@ -9573,7 +9598,7 @@
         <v>708.0</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="C51" s="3">
         <v>43824.0</v>
@@ -9593,7 +9618,7 @@
         <v>718.0</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="C52" s="3">
         <v>43824.0</v>
@@ -9613,7 +9638,7 @@
         <v>580.0</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="C53" s="3">
         <v>43824.0</v>
@@ -9633,7 +9658,7 @@
         <v>363.0</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="C54" s="3">
         <v>43824.0</v>
@@ -9653,7 +9678,7 @@
         <v>371.0</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="C55" s="3">
         <v>43824.0</v>
@@ -9673,7 +9698,7 @@
         <v>341.0</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="C56" s="3">
         <v>43824.0</v>
@@ -9693,7 +9718,7 @@
         <v>303.0</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="C57" s="3">
         <v>43824.0</v>
@@ -9713,7 +9738,7 @@
         <v>481.0</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="C58" s="3">
         <v>44176.0</v>
@@ -9733,7 +9758,7 @@
         <v>284.0</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="C59" s="3">
         <v>44180.0</v>
@@ -9753,7 +9778,7 @@
         <v>494.0</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="C60" s="3">
         <v>44190.0</v>
@@ -9773,7 +9798,7 @@
         <v>595.0</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="C61" s="3">
         <v>44190.0</v>
@@ -9793,7 +9818,7 @@
         <v>631.0</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="C62" s="3">
         <v>44190.0</v>
@@ -9813,7 +9838,7 @@
         <v>684.0</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="C63" s="3">
         <v>44539.0</v>
@@ -9833,7 +9858,7 @@
         <v>835.0</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="C64" s="3">
         <v>44539.0</v>
@@ -9853,7 +9878,7 @@
         <v>503.0</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="C65" s="3">
         <v>44539.0</v>
@@ -9873,7 +9898,7 @@
         <v>464.0</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="C66" s="3">
         <v>44539.0</v>
@@ -9893,7 +9918,7 @@
         <v>316.0</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="C67" s="3">
         <v>44539.0</v>
@@ -9913,7 +9938,7 @@
         <v>769.0</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="C68" s="3">
         <v>44555.0</v>
@@ -9933,7 +9958,7 @@
         <v>743.0</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="C69" s="3">
         <v>44555.0</v>
@@ -9953,7 +9978,7 @@
         <v>850.0</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="C70" s="3">
         <v>44555.0</v>
@@ -9973,7 +9998,7 @@
         <v>851.0</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="C71" s="3">
         <v>44555.0</v>
@@ -9993,7 +10018,7 @@
         <v>881.0</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="C72" s="3">
         <v>44555.0</v>
@@ -10013,7 +10038,7 @@
         <v>915.0</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="C73" s="3">
         <v>44909.0</v>
@@ -10033,7 +10058,7 @@
         <v>823.0</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="C74" s="3">
         <v>44914.0</v>
@@ -10053,7 +10078,7 @@
         <v>789.0</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="C75" s="3">
         <v>44914.0</v>
@@ -10073,7 +10098,7 @@
         <v>583.0</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="C76" s="3">
         <v>44915.0</v>
@@ -10093,7 +10118,7 @@
         <v>272.0</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="C77" s="3">
         <v>44915.0</v>
@@ -10113,7 +10138,7 @@
         <v>879.0</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="C78" s="3">
         <v>44921.0</v>
@@ -10133,7 +10158,7 @@
         <v>822.0</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="C79" s="3">
         <v>44922.0</v>
@@ -10153,7 +10178,7 @@
         <v>842.0</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="C80" s="3">
         <v>44923.0</v>
@@ -10173,7 +10198,7 @@
         <v>413.0</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="C81" s="3">
         <v>44923.0</v>
@@ -10193,7 +10218,7 @@
         <v>519.0</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="C82" s="3">
         <v>44923.0</v>
@@ -10213,7 +10238,7 @@
         <v>873.0</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="C83" s="3">
         <v>44923.0</v>
@@ -10233,7 +10258,7 @@
         <v>858.0</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="C84" s="3">
         <v>45262.0</v>
@@ -10253,7 +10278,7 @@
         <v>880.0</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="C85" s="3">
         <v>45265.0</v>
@@ -10273,7 +10298,7 @@
         <v>854.0</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="C86" s="3">
         <v>45265.0</v>
@@ -10293,7 +10318,7 @@
         <v>890.0</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="C87" s="3">
         <v>45265.0</v>
@@ -10313,7 +10338,7 @@
         <v>857.0</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="C88" s="3">
         <v>45285.0</v>
@@ -13226,52 +13251,102 @@
         <v>15.0</v>
       </c>
     </row>
+    <row r="71">
+      <c r="A71" s="2">
+        <v>938.0</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C71" s="9">
+        <v>45377.0</v>
+      </c>
+      <c r="D71" s="10">
+        <v>79.99</v>
+      </c>
+      <c r="E71" s="10">
+        <v>15.99</v>
+      </c>
+      <c r="F71" s="10">
+        <f t="shared" ref="F71:F72" si="1">D71-E71</f>
+        <v>64</v>
+      </c>
+    </row>
     <row r="72">
-      <c r="D72" s="5">
-        <f t="shared" ref="D72:F72" si="1">SUM(D2:D70)</f>
-        <v>1572.24</v>
-      </c>
-      <c r="E72" s="5">
+      <c r="A72" s="2">
+        <v>939.0</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C72" s="9">
+        <v>45382.0</v>
+      </c>
+      <c r="D72" s="10">
+        <v>26.48</v>
+      </c>
+      <c r="E72" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="F72" s="10">
         <f t="shared" si="1"/>
-        <v>545.22</v>
-      </c>
-      <c r="F72" s="5">
-        <f t="shared" si="1"/>
-        <v>1027.02</v>
-      </c>
-      <c r="G72" s="6">
-        <f t="shared" ref="G72:G73" si="2">D72-E72</f>
-        <v>1027.02</v>
-      </c>
-      <c r="H72" s="7">
-        <f>COUNTA(B2:B70)</f>
-        <v>69</v>
+        <v>26.48</v>
       </c>
     </row>
     <row r="73">
-      <c r="D73" s="5">
-        <f>D72/H72</f>
-        <v>22.78608696</v>
-      </c>
-      <c r="E73" s="5">
-        <f>E72/H72</f>
-        <v>7.90173913</v>
-      </c>
-      <c r="F73" s="5">
-        <f>F72/H72</f>
-        <v>14.88434783</v>
-      </c>
-      <c r="G73" s="6">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+    </row>
+    <row r="74">
+      <c r="D74" s="5">
+        <f t="shared" ref="D74:F74" si="2">SUM(D2:D72)</f>
+        <v>1678.71</v>
+      </c>
+      <c r="E74" s="5">
         <f t="shared" si="2"/>
-        <v>14.88434783</v>
-      </c>
-      <c r="H73" s="7">
-        <f>H72/H72</f>
+        <v>561.21</v>
+      </c>
+      <c r="F74" s="5">
+        <f t="shared" si="2"/>
+        <v>1117.5</v>
+      </c>
+      <c r="G74" s="6">
+        <f t="shared" ref="G74:G75" si="3">D74-E74</f>
+        <v>1117.5</v>
+      </c>
+      <c r="H74" s="7">
+        <f>COUNTA(B2:B72)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="D75" s="5">
+        <f>D74/H74</f>
+        <v>23.64380282</v>
+      </c>
+      <c r="E75" s="5">
+        <f>E74/H74</f>
+        <v>7.904366197</v>
+      </c>
+      <c r="F75" s="5">
+        <f>F74/H74</f>
+        <v>15.73943662</v>
+      </c>
+      <c r="G75" s="6">
+        <f t="shared" si="3"/>
+        <v>15.73943662</v>
+      </c>
+      <c r="H75" s="7">
+        <f>H74/H74</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$F$70"/>
+  <autoFilter ref="$A$1:$F$72"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -13318,7 +13393,7 @@
         <v>140.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C2" s="3">
         <v>41373.0</v>
@@ -13338,7 +13413,7 @@
         <v>143.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C3" s="3">
         <v>41373.0</v>
@@ -13358,7 +13433,7 @@
         <v>123.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C4" s="3">
         <v>41374.0</v>
@@ -13378,7 +13453,7 @@
         <v>164.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C5" s="3">
         <v>41389.0</v>
@@ -13398,7 +13473,7 @@
         <v>166.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C6" s="3">
         <v>41392.0</v>
@@ -13418,7 +13493,7 @@
         <v>619.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C7" s="3">
         <v>42095.0</v>
@@ -13438,7 +13513,7 @@
         <v>514.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C8" s="3">
         <v>42123.0</v>
@@ -13458,7 +13533,7 @@
         <v>656.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C9" s="3">
         <v>42828.0</v>
@@ -13478,7 +13553,7 @@
         <v>567.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C10" s="3">
         <v>42832.0</v>
@@ -13498,7 +13573,7 @@
         <v>624.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C11" s="3">
         <v>42832.0</v>
@@ -13518,7 +13593,7 @@
         <v>463.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C12" s="3">
         <v>42832.0</v>
@@ -13538,7 +13613,7 @@
         <v>498.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C13" s="3">
         <v>42832.0</v>
@@ -13558,7 +13633,7 @@
         <v>511.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C14" s="3">
         <v>42832.0</v>
@@ -13578,7 +13653,7 @@
         <v>597.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C15" s="3">
         <v>42832.0</v>
@@ -13598,7 +13673,7 @@
         <v>254.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C16" s="3">
         <v>42832.0</v>
@@ -13618,7 +13693,7 @@
         <v>244.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C17" s="3">
         <v>42832.0</v>
@@ -13638,7 +13713,7 @@
         <v>325.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C18" s="3">
         <v>42832.0</v>
@@ -13658,7 +13733,7 @@
         <v>355.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C19" s="3">
         <v>42832.0</v>
@@ -13678,7 +13753,7 @@
         <v>357.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C20" s="3">
         <v>42832.0</v>
@@ -13698,7 +13773,7 @@
         <v>402.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C21" s="3">
         <v>42834.0</v>
@@ -13718,7 +13793,7 @@
         <v>251.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C22" s="3">
         <v>42840.0</v>
@@ -13738,7 +13813,7 @@
         <v>267.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C23" s="3">
         <v>42840.0</v>
@@ -13758,7 +13833,7 @@
         <v>362.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C24" s="3">
         <v>42844.0</v>
@@ -13778,7 +13853,7 @@
         <v>305.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C25" s="3">
         <v>43558.0</v>
@@ -13798,7 +13873,7 @@
         <v>728.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C26" s="3">
         <v>43564.0</v>
@@ -13818,7 +13893,7 @@
         <v>768.0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C27" s="3">
         <v>43564.0</v>
@@ -13838,7 +13913,7 @@
         <v>292.0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C28" s="3">
         <v>43922.0</v>
@@ -13858,7 +13933,7 @@
         <v>293.0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C29" s="3">
         <v>43922.0</v>
@@ -13878,7 +13953,7 @@
         <v>294.0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C30" s="3">
         <v>43922.0</v>
@@ -13898,7 +13973,7 @@
         <v>391.0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C31" s="3">
         <v>43922.0</v>
@@ -13918,7 +13993,7 @@
         <v>415.0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C32" s="3">
         <v>43922.0</v>
@@ -13938,7 +14013,7 @@
         <v>401.0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C33" s="3">
         <v>43937.0</v>
@@ -13958,7 +14033,7 @@
         <v>482.0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C34" s="3">
         <v>43937.0</v>
@@ -13978,7 +14053,7 @@
         <v>399.0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C35" s="3">
         <v>43942.0</v>
@@ -13998,7 +14073,7 @@
         <v>115.0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C36" s="3">
         <v>44292.0</v>
@@ -14018,7 +14093,7 @@
         <v>147.0</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C37" s="3">
         <v>44292.0</v>
@@ -14038,7 +14113,7 @@
         <v>161.0</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C38" s="3">
         <v>44292.0</v>
@@ -14058,7 +14133,7 @@
         <v>125.0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C39" s="3">
         <v>44292.0</v>
@@ -14078,7 +14153,7 @@
         <v>130.0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C40" s="3">
         <v>44292.0</v>
@@ -14098,7 +14173,7 @@
         <v>872.0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C41" s="3">
         <v>44292.0</v>
@@ -14118,7 +14193,7 @@
         <v>132.0</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C42" s="3">
         <v>44299.0</v>
@@ -14138,7 +14213,7 @@
         <v>207.0</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C43" s="3">
         <v>44299.0</v>
@@ -14158,7 +14233,7 @@
         <v>216.0</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C44" s="3">
         <v>44299.0</v>
@@ -14178,7 +14253,7 @@
         <v>14.0</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C45" s="3">
         <v>44300.0</v>
@@ -14198,7 +14273,7 @@
         <v>15.0</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C46" s="3">
         <v>44300.0</v>
@@ -14218,7 +14293,7 @@
         <v>47.0</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C47" s="3">
         <v>44300.0</v>
@@ -14238,7 +14313,7 @@
         <v>48.0</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C48" s="3">
         <v>44300.0</v>
@@ -14258,7 +14333,7 @@
         <v>67.0</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C49" s="3">
         <v>44300.0</v>
@@ -14278,7 +14353,7 @@
         <v>69.0</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C50" s="3">
         <v>44300.0</v>
@@ -14298,7 +14373,7 @@
         <v>311.0</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C51" s="3">
         <v>44314.0</v>
@@ -14318,7 +14393,7 @@
         <v>586.0</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C52" s="3">
         <v>44656.0</v>
@@ -14338,7 +14413,7 @@
         <v>803.0</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C53" s="3">
         <v>44666.0</v>
@@ -14358,7 +14433,7 @@
         <v>783.0</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C54" s="3">
         <v>44678.0</v>
@@ -14378,7 +14453,7 @@
         <v>450.0</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C55" s="3">
         <v>44678.0</v>
@@ -14398,7 +14473,7 @@
         <v>863.0</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C56" s="3">
         <v>45020.0</v>
@@ -14418,7 +14493,7 @@
         <v>905.0</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C57" s="3">
         <v>45020.0</v>
@@ -14438,7 +14513,7 @@
         <v>229.0</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C58" s="3">
         <v>45036.0</v>
@@ -14453,52 +14528,94 @@
         <v>9.99</v>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" s="8">
+        <v>940.0</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C59" s="9">
+        <v>45385.0</v>
+      </c>
+      <c r="D59" s="10">
+        <v>39.99</v>
+      </c>
+      <c r="E59" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="F59" s="10">
+        <f t="shared" ref="F59:F60" si="1">D59-E59</f>
+        <v>39.99</v>
+      </c>
+    </row>
     <row r="60">
-      <c r="D60" s="5">
-        <f t="shared" ref="D60:F60" si="1">SUM(D2:D58)</f>
-        <v>948.13</v>
-      </c>
-      <c r="E60" s="5">
+      <c r="A60" s="8">
+        <v>941.0</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C60" s="9">
+        <v>45385.0</v>
+      </c>
+      <c r="D60" s="10">
+        <v>16.99</v>
+      </c>
+      <c r="E60" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="F60" s="10">
         <f t="shared" si="1"/>
+        <v>16.99</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="D62" s="5">
+        <f t="shared" ref="D62:F62" si="2">SUM(D2:D60)</f>
+        <v>1005.11</v>
+      </c>
+      <c r="E62" s="5">
+        <f t="shared" si="2"/>
         <v>564.87</v>
       </c>
-      <c r="F60" s="5">
-        <f t="shared" si="1"/>
-        <v>383.26</v>
-      </c>
-      <c r="G60" s="6">
-        <f t="shared" ref="G60:G61" si="2">D60-E60</f>
-        <v>383.26</v>
-      </c>
-      <c r="H60" s="7">
-        <f>COUNTA(B2:B58)</f>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="D61" s="5">
-        <f>D60/H60</f>
-        <v>16.63385965</v>
-      </c>
-      <c r="E61" s="5">
-        <f>E60/H60</f>
-        <v>9.91</v>
-      </c>
-      <c r="F61" s="5">
-        <f>F60/H60</f>
-        <v>6.723859649</v>
-      </c>
-      <c r="G61" s="6">
+      <c r="F62" s="5">
         <f t="shared" si="2"/>
-        <v>6.723859649</v>
-      </c>
-      <c r="H61" s="7">
-        <f>H60/H60</f>
+        <v>440.24</v>
+      </c>
+      <c r="G62" s="6">
+        <f t="shared" ref="G62:G63" si="3">D62-E62</f>
+        <v>440.24</v>
+      </c>
+      <c r="H62" s="7">
+        <f>COUNTA(B2:B60)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="D63" s="5">
+        <f>D62/H62</f>
+        <v>17.03576271</v>
+      </c>
+      <c r="E63" s="5">
+        <f>E62/H62</f>
+        <v>9.574067797</v>
+      </c>
+      <c r="F63" s="5">
+        <f>F62/H62</f>
+        <v>7.461694915</v>
+      </c>
+      <c r="G63" s="6">
+        <f t="shared" si="3"/>
+        <v>7.461694915</v>
+      </c>
+      <c r="H63" s="7">
+        <f>H62/H62</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$F$58"/>
+  <autoFilter ref="$A$1:$F$60"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -14548,7 +14665,7 @@
         <v>165.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C2" s="3">
         <v>40302.0</v>
@@ -14568,7 +14685,7 @@
         <v>127.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C3" s="3">
         <v>41404.0</v>
@@ -14588,7 +14705,7 @@
         <v>37.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C4" s="3">
         <v>41763.0</v>
@@ -14608,7 +14725,7 @@
         <v>38.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C5" s="3">
         <v>41763.0</v>
@@ -14628,7 +14745,7 @@
         <v>349.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C6" s="3">
         <v>42859.0</v>
@@ -14648,7 +14765,7 @@
         <v>432.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C7" s="3">
         <v>42859.0</v>
@@ -14668,7 +14785,7 @@
         <v>545.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C8" s="3">
         <v>42859.0</v>
@@ -14688,7 +14805,7 @@
         <v>632.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C9" s="3">
         <v>42859.0</v>
@@ -14708,7 +14825,7 @@
         <v>673.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C10" s="3">
         <v>42859.0</v>
@@ -14728,7 +14845,7 @@
         <v>645.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C11" s="3">
         <v>42875.0</v>
@@ -14748,7 +14865,7 @@
         <v>613.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C12" s="3">
         <v>42875.0</v>
@@ -14768,7 +14885,7 @@
         <v>479.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C13" s="3">
         <v>42875.0</v>
@@ -14788,7 +14905,7 @@
         <v>421.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C14" s="3">
         <v>42875.0</v>
@@ -14808,7 +14925,7 @@
         <v>320.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C15" s="3">
         <v>42875.0</v>
@@ -14828,7 +14945,7 @@
         <v>40.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C16" s="3">
         <v>42875.0</v>
@@ -14848,7 +14965,7 @@
         <v>61.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C17" s="3">
         <v>42877.0</v>
@@ -14868,7 +14985,7 @@
         <v>1.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C18" s="3">
         <v>42877.0</v>
@@ -14888,7 +15005,7 @@
         <v>4.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C19" s="3">
         <v>42877.0</v>
@@ -14908,7 +15025,7 @@
         <v>31.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C20" s="3">
         <v>42877.0</v>
@@ -14928,7 +15045,7 @@
         <v>608.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C21" s="3">
         <v>43249.0</v>
@@ -14948,7 +15065,7 @@
         <v>313.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C22" s="3">
         <v>43591.0</v>
@@ -14968,7 +15085,7 @@
         <v>780.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C23" s="3">
         <v>43615.0</v>
@@ -14988,7 +15105,7 @@
         <v>606.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C24" s="3">
         <v>43964.0</v>
@@ -15008,7 +15125,7 @@
         <v>533.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C25" s="3">
         <v>43964.0</v>
@@ -15028,7 +15145,7 @@
         <v>638.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C26" s="3">
         <v>43964.0</v>
@@ -15048,7 +15165,7 @@
         <v>792.0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C27" s="3">
         <v>44332.0</v>
@@ -15068,7 +15185,7 @@
         <v>826.0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C28" s="3">
         <v>44334.0</v>
@@ -15088,7 +15205,7 @@
         <v>832.0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C29" s="3">
         <v>44334.0</v>
@@ -15108,7 +15225,7 @@
         <v>902.0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C30" s="3">
         <v>44334.0</v>
@@ -15128,7 +15245,7 @@
         <v>295.0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C31" s="3">
         <v>44334.0</v>
@@ -15148,7 +15265,7 @@
         <v>345.0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C32" s="3">
         <v>44334.0</v>
@@ -15168,7 +15285,7 @@
         <v>410.0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C33" s="3">
         <v>44334.0</v>
@@ -15188,7 +15305,7 @@
         <v>500.0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C34" s="3">
         <v>44334.0</v>
@@ -15208,7 +15325,7 @@
         <v>502.0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C35" s="3">
         <v>44334.0</v>
@@ -15228,7 +15345,7 @@
         <v>358.0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C36" s="3">
         <v>44334.0</v>
@@ -15248,7 +15365,7 @@
         <v>393.0</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C37" s="3">
         <v>44334.0</v>
@@ -15268,7 +15385,7 @@
         <v>918.0</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C38" s="3">
         <v>44334.0</v>
@@ -15288,7 +15405,7 @@
         <v>923.0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C39" s="3">
         <v>44334.0</v>
@@ -15308,7 +15425,7 @@
         <v>928.0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C40" s="3">
         <v>44334.0</v>
@@ -15328,7 +15445,7 @@
         <v>927.0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C41" s="3">
         <v>44335.0</v>
@@ -15348,7 +15465,7 @@
         <v>921.0</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C42" s="3">
         <v>44335.0</v>
@@ -15368,7 +15485,7 @@
         <v>904.0</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C43" s="3">
         <v>44335.0</v>
@@ -15388,7 +15505,7 @@
         <v>874.0</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C44" s="3">
         <v>44335.0</v>
@@ -15408,7 +15525,7 @@
         <v>888.0</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C45" s="3">
         <v>44335.0</v>
@@ -15428,7 +15545,7 @@
         <v>607.0</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C46" s="3">
         <v>44335.0</v>
@@ -15448,7 +15565,7 @@
         <v>520.0</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C47" s="3">
         <v>44335.0</v>
@@ -15468,7 +15585,7 @@
         <v>859.0</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C48" s="3">
         <v>44343.0</v>
@@ -15488,7 +15605,7 @@
         <v>800.0</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C49" s="3">
         <v>44343.0</v>
@@ -15508,7 +15625,7 @@
         <v>899.0</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C50" s="3">
         <v>44343.0</v>
@@ -15528,7 +15645,7 @@
         <v>827.0</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C51" s="3">
         <v>44684.0</v>
@@ -15548,7 +15665,7 @@
         <v>663.0</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C52" s="3">
         <v>44684.0</v>
@@ -15568,7 +15685,7 @@
         <v>335.0</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C53" s="3">
         <v>44684.0</v>
@@ -15588,7 +15705,7 @@
         <v>302.0</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C54" s="3">
         <v>44708.0</v>
@@ -15608,7 +15725,7 @@
         <v>395.0</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C55" s="3">
         <v>44708.0</v>
@@ -15628,7 +15745,7 @@
         <v>400.0</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C56" s="3">
         <v>44708.0</v>
@@ -15648,7 +15765,7 @@
         <v>367.0</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C57" s="3">
         <v>44708.0</v>
@@ -15668,7 +15785,7 @@
         <v>368.0</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C58" s="3">
         <v>44708.0</v>
@@ -15688,7 +15805,7 @@
         <v>369.0</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C59" s="3">
         <v>44708.0</v>
@@ -15708,7 +15825,7 @@
         <v>380.0</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C60" s="3">
         <v>44708.0</v>
@@ -15728,7 +15845,7 @@
         <v>507.0</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C61" s="3">
         <v>44708.0</v>
@@ -15748,7 +15865,7 @@
         <v>676.0</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C62" s="3">
         <v>44708.0</v>
@@ -15768,7 +15885,7 @@
         <v>538.0</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C63" s="3">
         <v>44708.0</v>
@@ -15788,7 +15905,7 @@
         <v>544.0</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C64" s="3">
         <v>44708.0</v>
@@ -15808,7 +15925,7 @@
         <v>589.0</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C65" s="3">
         <v>44708.0</v>
@@ -15828,7 +15945,7 @@
         <v>759.0</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C66" s="3">
         <v>44708.0</v>
@@ -15848,7 +15965,7 @@
         <v>762.0</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C67" s="3">
         <v>44708.0</v>
@@ -15868,7 +15985,7 @@
         <v>834.0</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C68" s="3">
         <v>44708.0</v>
@@ -15888,7 +16005,7 @@
         <v>889.0</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C69" s="3">
         <v>44708.0</v>
@@ -15908,7 +16025,7 @@
         <v>837.0</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C70" s="3">
         <v>45048.0</v>
@@ -15928,7 +16045,7 @@
         <v>739.0</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C71" s="3">
         <v>45048.0</v>
@@ -15948,7 +16065,7 @@
         <v>411.0</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C72" s="3">
         <v>45048.0</v>
@@ -15968,7 +16085,7 @@
         <v>365.0</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C73" s="3">
         <v>45048.0</v>
@@ -15988,7 +16105,7 @@
         <v>354.0</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C74" s="3">
         <v>45048.0</v>
@@ -16008,7 +16125,7 @@
         <v>276.0</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C75" s="3">
         <v>45048.0</v>
@@ -16028,7 +16145,7 @@
         <v>920.0</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C76" s="3">
         <v>45050.0</v>
@@ -16048,7 +16165,7 @@
         <v>867.0</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C77" s="3">
         <v>45058.0</v>
@@ -16068,7 +16185,7 @@
         <v>696.0</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C78" s="3">
         <v>45058.0</v>
@@ -16088,7 +16205,7 @@
         <v>697.0</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C79" s="3">
         <v>45058.0</v>
@@ -16108,7 +16225,7 @@
         <v>698.0</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C80" s="3">
         <v>45058.0</v>
@@ -16128,7 +16245,7 @@
         <v>699.0</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C81" s="3">
         <v>45058.0</v>
@@ -16148,7 +16265,7 @@
         <v>670.0</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C82" s="3">
         <v>45058.0</v>
@@ -16168,7 +16285,7 @@
         <v>828.0</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C83" s="3">
         <v>45070.0</v>
@@ -16188,7 +16305,7 @@
         <v>307.0</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C84" s="3">
         <v>45070.0</v>
@@ -16298,7 +16415,7 @@
         <v>162.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C2" s="3">
         <v>40335.0</v>
@@ -16318,7 +16435,7 @@
         <v>188.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C3" s="3">
         <v>40338.0</v>
@@ -16338,7 +16455,7 @@
         <v>200.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C4" s="3">
         <v>40338.0</v>
@@ -16358,7 +16475,7 @@
         <v>34.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C5" s="3">
         <v>40696.0</v>
@@ -16378,7 +16495,7 @@
         <v>52.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C6" s="3">
         <v>40696.0</v>
@@ -16398,7 +16515,7 @@
         <v>139.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C7" s="3">
         <v>40706.0</v>
@@ -16418,7 +16535,7 @@
         <v>206.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C8" s="3">
         <v>40719.0</v>
@@ -16438,7 +16555,7 @@
         <v>131.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C9" s="3">
         <v>41427.0</v>
@@ -16458,7 +16575,7 @@
         <v>235.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C10" s="3">
         <v>41449.0</v>
@@ -16478,7 +16595,7 @@
         <v>242.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C11" s="3">
         <v>41791.0</v>
@@ -16498,7 +16615,7 @@
         <v>146.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C12" s="3">
         <v>42160.0</v>
@@ -16518,7 +16635,7 @@
         <v>288.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C13" s="3">
         <v>42887.0</v>
@@ -16538,7 +16655,7 @@
         <v>404.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C14" s="3">
         <v>42887.0</v>
@@ -16558,7 +16675,7 @@
         <v>535.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C15" s="3">
         <v>42887.0</v>
@@ -16578,7 +16695,7 @@
         <v>585.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C16" s="3">
         <v>42887.0</v>
@@ -16598,7 +16715,7 @@
         <v>496.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C17" s="3">
         <v>42908.0</v>
@@ -16618,7 +16735,7 @@
         <v>332.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C18" s="3">
         <v>42915.0</v>
@@ -16638,7 +16755,7 @@
         <v>286.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C19" s="3">
         <v>43268.0</v>
@@ -16658,7 +16775,7 @@
         <v>407.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C20" s="3">
         <v>43275.0</v>
@@ -16678,7 +16795,7 @@
         <v>420.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C21" s="3">
         <v>43275.0</v>
@@ -16698,7 +16815,7 @@
         <v>515.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C22" s="3">
         <v>43275.0</v>
@@ -16718,7 +16835,7 @@
         <v>564.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C23" s="3">
         <v>43275.0</v>
@@ -16738,7 +16855,7 @@
         <v>655.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C24" s="3">
         <v>43275.0</v>
@@ -16758,7 +16875,7 @@
         <v>702.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C25" s="3">
         <v>43275.0</v>
@@ -16778,7 +16895,7 @@
         <v>433.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C26" s="3">
         <v>43623.0</v>
@@ -16798,7 +16915,7 @@
         <v>304.0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C27" s="3">
         <v>43623.0</v>
@@ -16818,7 +16935,7 @@
         <v>774.0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C28" s="3">
         <v>43625.0</v>
@@ -16838,7 +16955,7 @@
         <v>343.0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C29" s="3">
         <v>43633.0</v>
@@ -16858,7 +16975,7 @@
         <v>333.0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C30" s="3">
         <v>43637.0</v>
@@ -16878,7 +16995,7 @@
         <v>556.0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C31" s="3">
         <v>43638.0</v>
@@ -16898,7 +17015,7 @@
         <v>558.0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C32" s="3">
         <v>43638.0</v>
@@ -16918,7 +17035,7 @@
         <v>706.0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C33" s="3">
         <v>43992.0</v>
@@ -16938,7 +17055,7 @@
         <v>672.0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C34" s="3">
         <v>44006.0</v>
@@ -16958,7 +17075,7 @@
         <v>870.0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C35" s="3">
         <v>44349.0</v>
@@ -16978,7 +17095,7 @@
         <v>911.0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C36" s="3">
         <v>44349.0</v>
@@ -16998,7 +17115,7 @@
         <v>924.0</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C37" s="3">
         <v>44349.0</v>
@@ -17018,7 +17135,7 @@
         <v>876.0</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C38" s="3">
         <v>44351.0</v>
@@ -17038,7 +17155,7 @@
         <v>896.0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C39" s="3">
         <v>44351.0</v>
@@ -17058,7 +17175,7 @@
         <v>860.0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C40" s="3">
         <v>44351.0</v>
@@ -17078,7 +17195,7 @@
         <v>808.0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C41" s="3">
         <v>44351.0</v>
@@ -17098,7 +17215,7 @@
         <v>820.0</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C42" s="3">
         <v>44351.0</v>
@@ -17118,7 +17235,7 @@
         <v>845.0</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C43" s="3">
         <v>44351.0</v>
@@ -17138,7 +17255,7 @@
         <v>846.0</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C44" s="3">
         <v>44351.0</v>
@@ -17158,7 +17275,7 @@
         <v>855.0</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C45" s="3">
         <v>44356.0</v>
@@ -17178,7 +17295,7 @@
         <v>611.0</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C46" s="3">
         <v>44377.0</v>
@@ -17198,7 +17315,7 @@
         <v>868.0</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C47" s="3">
         <v>44720.0</v>
@@ -17218,7 +17335,7 @@
         <v>802.0</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C48" s="3">
         <v>44720.0</v>
@@ -17238,7 +17355,7 @@
         <v>906.0</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C49" s="3">
         <v>45080.0</v>
@@ -17258,7 +17375,7 @@
         <v>866.0</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C50" s="3">
         <v>45083.0</v>
@@ -17278,7 +17395,7 @@
         <v>919.0</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C51" s="3">
         <v>45083.0</v>
@@ -17298,7 +17415,7 @@
         <v>849.0</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C52" s="3">
         <v>45083.0</v>
@@ -17409,7 +17526,7 @@
         <v>129.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C2" s="3">
         <v>40732.0</v>
@@ -17429,7 +17546,7 @@
         <v>152.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C3" s="3">
         <v>41458.0</v>
@@ -17449,7 +17566,7 @@
         <v>174.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C4" s="3">
         <v>41461.0</v>
@@ -17469,7 +17586,7 @@
         <v>175.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C5" s="3">
         <v>41480.0</v>
@@ -17489,7 +17606,7 @@
         <v>238.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C6" s="3">
         <v>42187.0</v>
@@ -17509,7 +17626,7 @@
         <v>239.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C7" s="3">
         <v>42187.0</v>
@@ -17529,7 +17646,7 @@
         <v>248.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C8" s="3">
         <v>42187.0</v>
@@ -17549,7 +17666,7 @@
         <v>249.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C9" s="3">
         <v>42187.0</v>
@@ -17569,7 +17686,7 @@
         <v>260.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C10" s="3">
         <v>42187.0</v>
@@ -17589,7 +17706,7 @@
         <v>268.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C11" s="3">
         <v>42187.0</v>
@@ -17609,7 +17726,7 @@
         <v>266.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C12" s="3">
         <v>42201.0</v>
@@ -17629,7 +17746,7 @@
         <v>629.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C13" s="3">
         <v>42920.0</v>
@@ -17649,7 +17766,7 @@
         <v>592.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C14" s="3">
         <v>42925.0</v>
@@ -17669,7 +17786,7 @@
         <v>646.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C15" s="3">
         <v>42925.0</v>
@@ -17689,7 +17806,7 @@
         <v>331.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C16" s="3">
         <v>42925.0</v>
@@ -17709,7 +17826,7 @@
         <v>364.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C17" s="3">
         <v>42925.0</v>
@@ -17729,7 +17846,7 @@
         <v>376.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C18" s="3">
         <v>42925.0</v>
@@ -17749,7 +17866,7 @@
         <v>561.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C19" s="3">
         <v>42925.0</v>
@@ -17769,7 +17886,7 @@
         <v>397.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C20" s="3">
         <v>42925.0</v>
@@ -17789,7 +17906,7 @@
         <v>398.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C21" s="3">
         <v>42925.0</v>
@@ -17809,7 +17926,7 @@
         <v>422.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C22" s="3">
         <v>42925.0</v>
@@ -17829,7 +17946,7 @@
         <v>426.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C23" s="3">
         <v>42925.0</v>
@@ -17849,7 +17966,7 @@
         <v>449.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C24" s="3">
         <v>42925.0</v>
@@ -17869,7 +17986,7 @@
         <v>524.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C25" s="3">
         <v>42927.0</v>
@@ -17889,7 +18006,7 @@
         <v>377.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C26" s="3">
         <v>42929.0</v>
@@ -17909,7 +18026,7 @@
         <v>271.0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C27" s="3">
         <v>42932.0</v>
@@ -17929,7 +18046,7 @@
         <v>298.0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C28" s="3">
         <v>42939.0</v>
@@ -17949,7 +18066,7 @@
         <v>323.0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C29" s="3">
         <v>42939.0</v>
@@ -17969,7 +18086,7 @@
         <v>542.0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C30" s="3">
         <v>42939.0</v>
@@ -17989,7 +18106,7 @@
         <v>388.0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C31" s="3">
         <v>42939.0</v>
@@ -18009,7 +18126,7 @@
         <v>478.0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C32" s="3">
         <v>42945.0</v>
@@ -18029,7 +18146,7 @@
         <v>546.0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="C33" s="3">
         <v>43295.0</v>
@@ -18049,7 +18166,7 @@
         <v>142.0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C34" s="3">
         <v>43295.0</v>
@@ -18069,7 +18186,7 @@
         <v>587.0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C35" s="3">
         <v>43652.0</v>
@@ -18089,7 +18206,7 @@
         <v>492.0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C36" s="3">
         <v>43668.0</v>
@@ -18109,7 +18226,7 @@
         <v>493.0</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C37" s="3">
         <v>43668.0</v>
@@ -18129,7 +18246,7 @@
         <v>381.0</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C38" s="3">
         <v>43668.0</v>
@@ -18149,7 +18266,7 @@
         <v>661.0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C39" s="3">
         <v>43668.0</v>
@@ -18169,7 +18286,7 @@
         <v>693.0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C40" s="3">
         <v>43668.0</v>
@@ -18189,7 +18306,7 @@
         <v>690.0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C41" s="3">
         <v>44378.0</v>
@@ -18209,7 +18326,7 @@
         <v>892.0</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C42" s="3">
         <v>44383.0</v>
@@ -18229,7 +18346,7 @@
         <v>703.0</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C43" s="3">
         <v>44383.0</v>
@@ -18249,7 +18366,7 @@
         <v>784.0</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C44" s="3">
         <v>44383.0</v>
@@ -18269,7 +18386,7 @@
         <v>844.0</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C45" s="3">
         <v>44383.0</v>
@@ -18289,7 +18406,7 @@
         <v>609.0</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C46" s="3">
         <v>44384.0</v>
@@ -18309,7 +18426,7 @@
         <v>639.0</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C47" s="3">
         <v>44389.0</v>
@@ -18329,7 +18446,7 @@
         <v>895.0</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C48" s="3">
         <v>44398.0</v>
@@ -18349,7 +18466,7 @@
         <v>898.0</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C49" s="3">
         <v>44398.0</v>
@@ -18369,7 +18486,7 @@
         <v>909.0</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C50" s="3">
         <v>44398.0</v>
@@ -18389,7 +18506,7 @@
         <v>913.0</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C51" s="3">
         <v>44398.0</v>
@@ -18409,7 +18526,7 @@
         <v>566.0</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="C52" s="3">
         <v>44398.0</v>
@@ -18429,7 +18546,7 @@
         <v>864.0</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="C53" s="3">
         <v>44405.0</v>
@@ -18449,7 +18566,7 @@
         <v>804.0</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C54" s="3">
         <v>44745.0</v>
@@ -18469,7 +18586,7 @@
         <v>819.0</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C55" s="3">
         <v>45111.0</v>
@@ -18489,7 +18606,7 @@
         <v>787.0</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C56" s="3">
         <v>45111.0</v>
@@ -18509,7 +18626,7 @@
         <v>801.0</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C57" s="3">
         <v>45111.0</v>
@@ -18619,7 +18736,7 @@
         <v>225.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C2" s="3">
         <v>40405.0</v>
@@ -18639,7 +18756,7 @@
         <v>213.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C3" s="3">
         <v>41491.0</v>
@@ -18659,7 +18776,7 @@
         <v>171.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C4" s="3">
         <v>41493.0</v>
@@ -18679,7 +18796,7 @@
         <v>155.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="C5" s="3">
         <v>41495.0</v>
@@ -18699,7 +18816,7 @@
         <v>13.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C6" s="3">
         <v>42218.0</v>
@@ -18719,7 +18836,7 @@
         <v>250.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C7" s="3">
         <v>42218.0</v>
@@ -18739,7 +18856,7 @@
         <v>263.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C8" s="3">
         <v>42218.0</v>
@@ -18759,7 +18876,7 @@
         <v>233.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C9" s="3">
         <v>42224.0</v>
@@ -18779,7 +18896,7 @@
         <v>434.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C10" s="3">
         <v>42234.0</v>
@@ -18799,7 +18916,7 @@
         <v>246.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C11" s="3">
         <v>42236.0</v>
@@ -18819,7 +18936,7 @@
         <v>85.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C12" s="3">
         <v>42236.0</v>
@@ -18839,7 +18956,7 @@
         <v>87.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C13" s="3">
         <v>42236.0</v>
@@ -18859,7 +18976,7 @@
         <v>88.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C14" s="3">
         <v>42236.0</v>
@@ -18879,7 +18996,7 @@
         <v>89.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="C15" s="3">
         <v>42236.0</v>
@@ -18899,7 +19016,7 @@
         <v>90.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C16" s="3">
         <v>42236.0</v>
@@ -18919,7 +19036,7 @@
         <v>264.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C17" s="3">
         <v>42246.0</v>
@@ -18939,7 +19056,7 @@
         <v>273.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C18" s="3">
         <v>42950.0</v>
@@ -18959,7 +19076,7 @@
         <v>467.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C19" s="3">
         <v>42950.0</v>
@@ -18979,7 +19096,7 @@
         <v>330.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C20" s="3">
         <v>42950.0</v>
@@ -18999,7 +19116,7 @@
         <v>310.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C21" s="3">
         <v>42950.0</v>
@@ -19019,7 +19136,7 @@
         <v>315.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C22" s="3">
         <v>42950.0</v>
@@ -19039,7 +19156,7 @@
         <v>483.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C23" s="3">
         <v>42950.0</v>
@@ -19059,7 +19176,7 @@
         <v>488.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="C24" s="3">
         <v>42950.0</v>
@@ -19079,7 +19196,7 @@
         <v>549.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C25" s="3">
         <v>42950.0</v>
@@ -19099,7 +19216,7 @@
         <v>565.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C26" s="3">
         <v>42950.0</v>
@@ -19119,7 +19236,7 @@
         <v>600.0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C27" s="3">
         <v>42950.0</v>
@@ -19139,7 +19256,7 @@
         <v>678.0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="C28" s="3">
         <v>42950.0</v>
@@ -19159,7 +19276,7 @@
         <v>679.0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C29" s="3">
         <v>42950.0</v>
@@ -19179,7 +19296,7 @@
         <v>680.0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="C30" s="3">
         <v>42950.0</v>
@@ -19199,7 +19316,7 @@
         <v>691.0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C31" s="3">
         <v>42950.0</v>
@@ -19219,7 +19336,7 @@
         <v>651.0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C32" s="3">
         <v>42950.0</v>
@@ -19239,7 +19356,7 @@
         <v>705.0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C33" s="3">
         <v>42950.0</v>
@@ -19259,7 +19376,7 @@
         <v>652.0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C34" s="3">
         <v>42951.0</v>
@@ -19279,7 +19396,7 @@
         <v>665.0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="C35" s="3">
         <v>42951.0</v>
@@ -19299,7 +19416,7 @@
         <v>666.0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="C36" s="3">
         <v>42951.0</v>
@@ -19319,7 +19436,7 @@
         <v>667.0</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C37" s="3">
         <v>42951.0</v>
@@ -19339,7 +19456,7 @@
         <v>563.0</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C38" s="3">
         <v>42951.0</v>
@@ -19359,7 +19476,7 @@
         <v>584.0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="C39" s="3">
         <v>42951.0</v>
@@ -19379,7 +19496,7 @@
         <v>484.0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C40" s="3">
         <v>42951.0</v>
@@ -19399,7 +19516,7 @@
         <v>504.0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C41" s="3">
         <v>42951.0</v>
@@ -19419,7 +19536,7 @@
         <v>526.0</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="C42" s="3">
         <v>42951.0</v>
@@ -19439,7 +19556,7 @@
         <v>405.0</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C43" s="3">
         <v>42951.0</v>
@@ -19459,7 +19576,7 @@
         <v>447.0</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C44" s="3">
         <v>42951.0</v>
@@ -19479,7 +19596,7 @@
         <v>283.0</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="C45" s="3">
         <v>42951.0</v>
@@ -19499,7 +19616,7 @@
         <v>285.0</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="C46" s="3">
         <v>42954.0</v>
@@ -19519,7 +19636,7 @@
         <v>522.0</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="C47" s="3">
         <v>42954.0</v>
@@ -19539,7 +19656,7 @@
         <v>621.0</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="C48" s="3">
         <v>42954.0</v>
@@ -19559,7 +19676,7 @@
         <v>590.0</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="C49" s="3">
         <v>42961.0</v>
@@ -19579,7 +19696,7 @@
         <v>485.0</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C50" s="3">
         <v>42969.0</v>
@@ -19599,7 +19716,7 @@
         <v>300.0</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="C51" s="3">
         <v>42969.0</v>
@@ -19619,7 +19736,7 @@
         <v>301.0</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="C52" s="3">
         <v>42969.0</v>
@@ -19639,7 +19756,7 @@
         <v>306.0</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="C53" s="3">
         <v>42969.0</v>
@@ -19659,7 +19776,7 @@
         <v>269.0</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="C54" s="3">
         <v>42969.0</v>
@@ -19679,7 +19796,7 @@
         <v>270.0</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="C55" s="3">
         <v>42969.0</v>
@@ -19699,7 +19816,7 @@
         <v>668.0</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="C56" s="3">
         <v>42969.0</v>
@@ -19719,7 +19836,7 @@
         <v>700.0</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="C57" s="3">
         <v>42969.0</v>
@@ -19739,7 +19856,7 @@
         <v>701.0</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C58" s="3">
         <v>42969.0</v>
@@ -19759,7 +19876,7 @@
         <v>321.0</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C59" s="3">
         <v>43335.0</v>
@@ -19779,7 +19896,7 @@
         <v>582.0</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="C60" s="3">
         <v>43341.0</v>
@@ -19799,7 +19916,7 @@
         <v>359.0</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="C61" s="3">
         <v>43685.0</v>
@@ -19819,7 +19936,7 @@
         <v>360.0</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="C62" s="3">
         <v>43685.0</v>
@@ -19839,7 +19956,7 @@
         <v>361.0</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C63" s="3">
         <v>43685.0</v>
@@ -19859,7 +19976,7 @@
         <v>324.0</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="C64" s="3">
         <v>43699.0</v>
@@ -19879,7 +19996,7 @@
         <v>752.0</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C65" s="3">
         <v>43699.0</v>
@@ -19899,7 +20016,7 @@
         <v>704.0</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C66" s="3">
         <v>44063.0</v>
@@ -19919,7 +20036,7 @@
         <v>326.0</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="C67" s="3">
         <v>44067.0</v>
@@ -19939,7 +20056,7 @@
         <v>356.0</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="C68" s="3">
         <v>44071.0</v>
@@ -19959,7 +20076,7 @@
         <v>521.0</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="C69" s="3">
         <v>44071.0</v>
@@ -19979,7 +20096,7 @@
         <v>753.0</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="C70" s="3">
         <v>44071.0</v>
@@ -19999,7 +20116,7 @@
         <v>599.0</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="C71" s="3">
         <v>44071.0</v>
@@ -20019,7 +20136,7 @@
         <v>625.0</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="C72" s="3">
         <v>44411.0</v>
@@ -20039,7 +20156,7 @@
         <v>299.0</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="C73" s="3">
         <v>44412.0</v>
@@ -20059,7 +20176,7 @@
         <v>234.0</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="C74" s="3">
         <v>44422.0</v>
@@ -20079,7 +20196,7 @@
         <v>215.0</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="C75" s="3">
         <v>44422.0</v>
@@ -20099,7 +20216,7 @@
         <v>102.0</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="C76" s="3">
         <v>44422.0</v>
@@ -20119,7 +20236,7 @@
         <v>138.0</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="C77" s="3">
         <v>44422.0</v>
@@ -20139,7 +20256,7 @@
         <v>156.0</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="C78" s="3">
         <v>44422.0</v>
@@ -20159,7 +20276,7 @@
         <v>157.0</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="C79" s="3">
         <v>44422.0</v>
@@ -20179,7 +20296,7 @@
         <v>163.0</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="C80" s="3">
         <v>44422.0</v>
@@ -20199,7 +20316,7 @@
         <v>181.0</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C81" s="3">
         <v>44422.0</v>
@@ -20219,7 +20336,7 @@
         <v>197.0</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="C82" s="3">
         <v>44422.0</v>
@@ -20239,7 +20356,7 @@
         <v>205.0</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C83" s="3">
         <v>44422.0</v>
@@ -20259,7 +20376,7 @@
         <v>212.0</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="C84" s="3">
         <v>44422.0</v>
@@ -20279,7 +20396,7 @@
         <v>379.0</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="C85" s="3">
         <v>44426.0</v>
@@ -20299,7 +20416,7 @@
         <v>338.0</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C86" s="3">
         <v>44431.0</v>
@@ -20319,7 +20436,7 @@
         <v>347.0</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C87" s="3">
         <v>44431.0</v>
@@ -20339,7 +20456,7 @@
         <v>534.0</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C88" s="3">
         <v>44431.0</v>
@@ -20359,7 +20476,7 @@
         <v>495.0</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C89" s="3">
         <v>44431.0</v>
@@ -20379,7 +20496,7 @@
         <v>596.0</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C90" s="3">
         <v>44431.0</v>
@@ -20399,7 +20516,7 @@
         <v>578.0</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="C91" s="3">
         <v>44431.0</v>
@@ -20419,7 +20536,7 @@
         <v>297.0</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="C92" s="3">
         <v>44431.0</v>
@@ -20439,7 +20556,7 @@
         <v>614.0</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C93" s="3">
         <v>44431.0</v>
@@ -20459,7 +20576,7 @@
         <v>677.0</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="C94" s="3">
         <v>44431.0</v>
@@ -20479,7 +20596,7 @@
         <v>654.0</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="C95" s="3">
         <v>44431.0</v>
@@ -20499,7 +20616,7 @@
         <v>694.0</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="C96" s="3">
         <v>44431.0</v>
@@ -20519,7 +20636,7 @@
         <v>275.0</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C97" s="3">
         <v>44432.0</v>
@@ -20539,7 +20656,7 @@
         <v>710.0</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="C98" s="3">
         <v>44433.0</v>
@@ -20559,7 +20676,7 @@
         <v>829.0</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="C99" s="3">
         <v>44776.0</v>
@@ -20579,7 +20696,7 @@
         <v>914.0</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C100" s="3">
         <v>44776.0</v>
@@ -20599,7 +20716,7 @@
         <v>476.0</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="C101" s="3">
         <v>44776.0</v>
@@ -20619,7 +20736,7 @@
         <v>805.0</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="C102" s="3">
         <v>44796.0</v>
@@ -20639,7 +20756,7 @@
         <v>812.0</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="C103" s="3">
         <v>45140.0</v>
@@ -20659,7 +20776,7 @@
         <v>922.0</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="C104" s="3">
         <v>45143.0</v>
@@ -20770,7 +20887,7 @@
         <v>28.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="C2" s="3">
         <v>40794.0</v>
@@ -20790,7 +20907,7 @@
         <v>548.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="C3" s="3">
         <v>42253.0</v>
@@ -20810,7 +20927,7 @@
         <v>513.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C4" s="3">
         <v>42253.0</v>
@@ -20830,7 +20947,7 @@
         <v>709.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="C5" s="3">
         <v>42257.0</v>
@@ -20850,7 +20967,7 @@
         <v>158.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="C6" s="3">
         <v>42259.0</v>
@@ -20870,7 +20987,7 @@
         <v>159.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="C7" s="3">
         <v>42259.0</v>
@@ -20890,7 +21007,7 @@
         <v>525.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="C8" s="3">
         <v>42619.0</v>
@@ -20910,7 +21027,7 @@
         <v>490.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="C9" s="3">
         <v>42619.0</v>
@@ -20930,7 +21047,7 @@
         <v>339.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="C10" s="3">
         <v>42619.0</v>
@@ -20950,7 +21067,7 @@
         <v>416.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="C11" s="3">
         <v>42619.0</v>
@@ -20970,7 +21087,7 @@
         <v>417.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C12" s="3">
         <v>42619.0</v>
@@ -20990,7 +21107,7 @@
         <v>418.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="C13" s="3">
         <v>42619.0</v>
@@ -21010,7 +21127,7 @@
         <v>569.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="C14" s="3">
         <v>42619.0</v>
@@ -21030,7 +21147,7 @@
         <v>540.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="C15" s="3">
         <v>42623.0</v>
@@ -21050,7 +21167,7 @@
         <v>562.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C16" s="3">
         <v>42623.0</v>
@@ -21070,7 +21187,7 @@
         <v>641.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="C17" s="3">
         <v>42624.0</v>
@@ -21090,7 +21207,7 @@
         <v>628.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="C18" s="3">
         <v>42635.0</v>
@@ -21110,7 +21227,7 @@
         <v>499.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="C19" s="3">
         <v>42635.0</v>
@@ -21130,7 +21247,7 @@
         <v>322.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="C20" s="3">
         <v>42635.0</v>
@@ -21150,7 +21267,7 @@
         <v>389.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="C21" s="3">
         <v>43007.0</v>
@@ -21170,7 +21287,7 @@
         <v>237.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="C22" s="3">
         <v>43345.0</v>
@@ -21190,7 +21307,7 @@
         <v>486.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="C23" s="3">
         <v>43350.0</v>
@@ -21210,7 +21327,7 @@
         <v>385.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="C24" s="3">
         <v>43372.0</v>
@@ -21230,7 +21347,7 @@
         <v>3.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="C25" s="3">
         <v>43373.0</v>
@@ -21250,7 +21367,7 @@
         <v>5.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="C26" s="3">
         <v>43373.0</v>
@@ -21270,7 +21387,7 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="C27" s="3">
         <v>43373.0</v>
@@ -21290,7 +21407,7 @@
         <v>149.0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="C28" s="3">
         <v>43373.0</v>
@@ -21310,7 +21427,7 @@
         <v>154.0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="C29" s="3">
         <v>43373.0</v>
@@ -21330,7 +21447,7 @@
         <v>452.0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="C30" s="3">
         <v>43373.0</v>
@@ -21350,7 +21467,7 @@
         <v>241.0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="C31" s="3">
         <v>43373.0</v>
@@ -21370,7 +21487,7 @@
         <v>245.0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="C32" s="3">
         <v>43373.0</v>
@@ -21390,7 +21507,7 @@
         <v>256.0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="C33" s="3">
         <v>43373.0</v>
@@ -21410,7 +21527,7 @@
         <v>258.0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="C34" s="3">
         <v>43373.0</v>
@@ -21430,7 +21547,7 @@
         <v>259.0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="C35" s="3">
         <v>43373.0</v>
@@ -21450,7 +21567,7 @@
         <v>265.0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="C36" s="3">
         <v>43373.0</v>
@@ -21470,7 +21587,7 @@
         <v>59.0</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="C37" s="3">
         <v>43373.0</v>
@@ -21490,7 +21607,7 @@
         <v>73.0</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="C38" s="3">
         <v>43373.0</v>
@@ -21510,7 +21627,7 @@
         <v>74.0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="C39" s="3">
         <v>43373.0</v>
@@ -21530,7 +21647,7 @@
         <v>91.0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="C40" s="3">
         <v>43373.0</v>
@@ -21550,7 +21667,7 @@
         <v>94.0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="C41" s="3">
         <v>43373.0</v>
@@ -21570,7 +21687,7 @@
         <v>319.0</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="C42" s="3">
         <v>43717.0</v>
@@ -21590,7 +21707,7 @@
         <v>736.0</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="C43" s="3">
         <v>43717.0</v>
@@ -21610,7 +21727,7 @@
         <v>799.0</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="C44" s="3">
         <v>43721.0</v>
@@ -21630,7 +21747,7 @@
         <v>552.0</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="C45" s="3">
         <v>43727.0</v>
@@ -21650,7 +21767,7 @@
         <v>553.0</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="C46" s="3">
         <v>43727.0</v>
@@ -21670,7 +21787,7 @@
         <v>554.0</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="C47" s="3">
         <v>43727.0</v>
@@ -21690,7 +21807,7 @@
         <v>280.0</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="C48" s="3">
         <v>43727.0</v>
@@ -21710,7 +21827,7 @@
         <v>317.0</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="C49" s="3">
         <v>43727.0</v>
@@ -21730,7 +21847,7 @@
         <v>642.0</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="C50" s="3">
         <v>44083.0</v>
@@ -21750,7 +21867,7 @@
         <v>574.0</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="C51" s="3">
         <v>44091.0</v>
@@ -21770,7 +21887,7 @@
         <v>575.0</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="C52" s="3">
         <v>44091.0</v>
@@ -21790,7 +21907,7 @@
         <v>749.0</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="C53" s="3">
         <v>44091.0</v>
@@ -21810,7 +21927,7 @@
         <v>176.0</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="C54" s="3">
         <v>44091.0</v>
@@ -21830,7 +21947,7 @@
         <v>186.0</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="C55" s="3">
         <v>44091.0</v>
@@ -21850,7 +21967,7 @@
         <v>187.0</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="C56" s="3">
         <v>44091.0</v>
@@ -21870,7 +21987,7 @@
         <v>193.0</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="C57" s="3">
         <v>44091.0</v>
@@ -21890,7 +22007,7 @@
         <v>194.0</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C58" s="3">
         <v>44091.0</v>
@@ -21910,7 +22027,7 @@
         <v>100.0</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="C59" s="3">
         <v>44091.0</v>
@@ -21930,7 +22047,7 @@
         <v>103.0</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C60" s="3">
         <v>44091.0</v>
@@ -21950,7 +22067,7 @@
         <v>110.0</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="C61" s="3">
         <v>44091.0</v>
@@ -21970,7 +22087,7 @@
         <v>113.0</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="C62" s="3">
         <v>44091.0</v>
@@ -21990,7 +22107,7 @@
         <v>114.0</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="C63" s="3">
         <v>44091.0</v>
@@ -22010,7 +22127,7 @@
         <v>116.0</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="C64" s="3">
         <v>44091.0</v>
@@ -22030,7 +22147,7 @@
         <v>117.0</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="C65" s="3">
         <v>44091.0</v>
@@ -22050,7 +22167,7 @@
         <v>120.0</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="C66" s="3">
         <v>44091.0</v>
@@ -22070,7 +22187,7 @@
         <v>122.0</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="C67" s="3">
         <v>44091.0</v>
@@ -22090,7 +22207,7 @@
         <v>124.0</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="C68" s="3">
         <v>44091.0</v>
@@ -22110,7 +22227,7 @@
         <v>126.0</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="C69" s="3">
         <v>44091.0</v>
@@ -22130,7 +22247,7 @@
         <v>136.0</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="C70" s="3">
         <v>44091.0</v>
@@ -22150,7 +22267,7 @@
         <v>144.0</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="C71" s="3">
         <v>44091.0</v>
@@ -22170,7 +22287,7 @@
         <v>145.0</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="C72" s="3">
         <v>44091.0</v>
@@ -22190,7 +22307,7 @@
         <v>217.0</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="C73" s="3">
         <v>44091.0</v>
@@ -22210,7 +22327,7 @@
         <v>218.0</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="C74" s="3">
         <v>44091.0</v>
@@ -22230,7 +22347,7 @@
         <v>669.0</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="C75" s="3">
         <v>44446.0</v>
@@ -22250,7 +22367,7 @@
         <v>733.0</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="C76" s="3">
         <v>44446.0</v>
@@ -22270,7 +22387,7 @@
         <v>821.0</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="C77" s="3">
         <v>44446.0</v>
@@ -22290,7 +22407,7 @@
         <v>907.0</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="C78" s="3">
         <v>44455.0</v>
@@ -22310,7 +22427,7 @@
         <v>425.0</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="C79" s="3">
         <v>44461.0</v>
@@ -22330,7 +22447,7 @@
         <v>793.0</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="C80" s="3">
         <v>44467.0</v>
@@ -22350,7 +22467,7 @@
         <v>903.0</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="C81" s="3">
         <v>44469.0</v>
@@ -22370,7 +22487,7 @@
         <v>559.0</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="C82" s="3">
         <v>44469.0</v>
@@ -22390,7 +22507,7 @@
         <v>414.0</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="C83" s="3">
         <v>44811.0</v>
@@ -22410,7 +22527,7 @@
         <v>505.0</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="C84" s="3">
         <v>44811.0</v>
@@ -22430,7 +22547,7 @@
         <v>917.0</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="C85" s="3">
         <v>44811.0</v>
@@ -22450,7 +22567,7 @@
         <v>815.0</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="C86" s="3">
         <v>44811.0</v>
@@ -22470,7 +22587,7 @@
         <v>796.0</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="C87" s="3">
         <v>44813.0</v>
@@ -22490,7 +22607,7 @@
         <v>897.0</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="C88" s="3">
         <v>44817.0</v>
@@ -22510,7 +22627,7 @@
         <v>885.0</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="C89" s="3">
         <v>44831.0</v>
@@ -22530,7 +22647,7 @@
         <v>882.0</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="C90" s="3">
         <v>44831.0</v>
@@ -22550,7 +22667,7 @@
         <v>883.0</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="C91" s="3">
         <v>44831.0</v>
@@ -22570,7 +22687,7 @@
         <v>196.0</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="C92" s="3">
         <v>44832.0</v>
@@ -22590,7 +22707,7 @@
         <v>403.0</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="C93" s="3">
         <v>45174.0</v>
@@ -22610,7 +22727,7 @@
         <v>893.0</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="C94" s="3">
         <v>45174.0</v>
@@ -22630,7 +22747,7 @@
         <v>856.0</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="C95" s="3">
         <v>45176.0</v>
@@ -22650,7 +22767,7 @@
         <v>865.0</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="C96" s="3">
         <v>45176.0</v>
@@ -22670,7 +22787,7 @@
         <v>818.0</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="C97" s="3">
         <v>45176.0</v>
@@ -22690,7 +22807,7 @@
         <v>719.0</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="C98" s="3">
         <v>45176.0</v>
@@ -22710,7 +22827,7 @@
         <v>572.0</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="C99" s="3">
         <v>45176.0</v>
@@ -22730,7 +22847,7 @@
         <v>660.0</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="C100" s="3">
         <v>45176.0</v>
@@ -22750,7 +22867,7 @@
         <v>630.0</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="C101" s="3">
         <v>45176.0</v>
@@ -22770,7 +22887,7 @@
         <v>501.0</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="C102" s="3">
         <v>45176.0</v>
@@ -22790,7 +22907,7 @@
         <v>509.0</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="C103" s="3">
         <v>45177.0</v>
@@ -22810,7 +22927,7 @@
         <v>539.0</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="C104" s="3">
         <v>45177.0</v>
@@ -22830,7 +22947,7 @@
         <v>412.0</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="C105" s="3">
         <v>45177.0</v>
@@ -22850,7 +22967,7 @@
         <v>442.0</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="C106" s="3">
         <v>45177.0</v>
@@ -22870,7 +22987,7 @@
         <v>838.0</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="C107" s="3">
         <v>45177.0</v>
@@ -22890,7 +23007,7 @@
         <v>925.0</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="C108" s="3">
         <v>45177.0</v>
@@ -22910,7 +23027,7 @@
         <v>871.0</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="C109" s="3">
         <v>45181.0</v>
@@ -22930,7 +23047,7 @@
         <v>508.0</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="C110" s="3">
         <v>45182.0</v>
@@ -22950,7 +23067,7 @@
         <v>884.0</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="C111" s="3">
         <v>45195.0</v>
